--- a/DOM_Banner/output/dept_banner/Melvin Hector_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Melvin Hector_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,517 +360,246 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Melvin Hector</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362603560</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Is Dementia a Disease?</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = "https://openalex.org/A5088747364", au_display_name = "Melvin Hector", au_orcid = NA, author_position = "first", au_affiliation_raw = "", institution_id = NA, institution_display_name = NA, institution_ror = NA, institution_country_code = NA, institution_type = NA, institution_lineage = NA)</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>At the end of clinic day today I had been invited to speak to a church group via Zoom about the topic of dementia. I thought it might be fun to talk with people about dementia, as I do with my patients, without the need for a slideshow or references. The format was set up so that I would talk a little about dementia first, and then I would answer any questions. With so much to cover, I decided to focus on what aspects of dementia I wish we all understood better. I started with the observation that we were talking about an issue that some researchers in the field view as an inevitable consequence of aging. Their contention is that if every one of us lived long enough we would all eventually develop dementia. It is not dissimilar to the notion that our joints wear out over time and would show deterioration after 70, 80, 90, or more years of use. It isn’t a shock when our joints show that expected decline, so why are we shocked if and when our brains show signs of wear? There are, of course, stressors, tragedies, and losses that come with this process. To watch a personality or a sense of humor or an identity wear away is not the same thing as the loss of that meniscus, cartilage, tendon, or bone and the physical capability. Yet both processes could be understood as signs of attrition among living beings. As a geriatrician, I’m frankly at a bit of a loss as to how dementia became a “disease.” I am familiar with the medical model’s approach to problems: identify an anomaly and find a cure. Dementia, when identified as an enemy, becomes a concept worthy of defeat at any cost, no matter how much energy, resources, funding, and effort are required. We have literally spent billions if not trillions of dollars in the spirit of this model. We have diagnostic efforts that are becoming more and more exact at predicting the advent or advancement of this part of our gray matter so that — what? So that we can recognize it and offer treatments that are modestly effectual, do not change the course of the process, but justify our involvement and manifest our concern? Truthfully, they mostly rule out other possible conditions, which may be a worthy goal. And, all the while, the media are fanning the flames we’ve ignited of this deemed catastrophe, reporting that yet another thing to fear is widely dispersed while trivial and not-so-trivial attempts at treatment are advanced. The fact is that these serve mostly to benefit those who are marketing them to patients or families desperate for treatment. What if, instead, we taught everyone to ward off the onset of this condition in ways we know work? There are excellent data showing that maintaining a healthy weight, exercising, keeping your mind busy, watching your blood sugars and blood pressure, moderating your alcohol intake, and stopping smoking might all have salutary effects in delaying progression toward dementia. Some patients may require medicines to help accomplish some of these measures, but we have no clinically effective medication — yet — that will actually make a significant impact on halting or even slowing down this attrition of our minds. It all comes down to education, awareness, understanding, the willingness and integrity to teach this lesson and to be taught, and to actually do what has been shown to work. In her book Dementia, Together — How to Communicate to Connect (Puddle Dancer Press, 2020), Pati Bielak-Smith offers four things that we might need to start with. There is the diagnosis itself, with a truly unnecessary epidemic of fear built upon the possible consequences of having dementia. There is the person affected by that condition as it progresses in their lives. There are the caregivers who valiantly deal with these issues in the context of providing the best they can for the ones they love. And finally, there is the need to patiently embrace the conditioning, communication, and understanding that must happen between that person and his or her caregivers. These are tasks that are truly worthy of attention, funding, interest, instruction, leadership, and talent. After I gave my talk, the questions from the audience were predictably aligned with everything they’d heard up to now. Do I need to be tested? Where? Do I have dementia? What resources are there locally? What about all these medications advertised for memory on television? A discussion ensued, limited by the 60 minutes of time we shared. What I chose not to emphasize was the recent attention drawn to the potentially fabricated research on amyloid beta plaques in brain tissues as a cause of Alzheimer’s disease (Science 2022;377:358–363). This hypothesis, promulgated by major journals, led to years and years of effort and expense to (unsuccessfully) duplicate and confirm the results — all without challenging the questionable data of that first influential study. I also did not dwell on the medications developed based on this hypothesis, which are obscenely expensive. Yes, their results show tangible regression of some of the structures of what we recognize as microscopic evidence of dementia — yet without any significant effect on the patient that might justify the cost or the potential side effects. I regret our unquestioning faith in the medical model as a solution for a condition that is not a disease. We could instead spend more time, money, effort, and research on how to develop the care that patients with the condition called dementia will need to sustain their valued existence in a way that is consistent with their hopes, desires, dreams, and needs. We need to have the humility to recognize, teach, learn, and fund such care so that it will indeed be there if and when we ourselves at that doorstep. At the end of my talk, it occurred to me how vulnerable I felt in expressing such concerns and doubts about a profession I love and a methodology I respect. By voicing our doubts, we call into question so much of what we do today and how we approach this and other significant and important problems. I suspect medicine can handle the query. But are we, as professionals, willing to change our perspective from viewing this condition as a disease? And are we able to accept that our colleagues in the therapies, social work, nursing, and public health fields might actually do a better job for our patients with this particular condition, that they may have more to offer our patients and their families? Dr. Hector is a certified medical director and is board certified in family practice, with a CAQ in geriatrics. He works as a clinical associate professor in the Division of Geriatrics, Palliative Care, and General Internal Medicine at the University of Arizona. His views are his own and do not represent those of the Society nor any other entity.</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>Caring for the ages</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Caring for the ages</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210200477</t>
+          <t>https://doi.org/10.1016/j.carage.2023.03.016</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1526-4114</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.carage.2023.03.016</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>http://www.caringfortheages.com/article/S1526411423000732/pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>http://www.caringfortheages.com/article/S1526411423000732/pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4362603560</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4362603560", doi = "https://doi.org/10.1016/j.carage.2023.03.016")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.carage.2023.03.016</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2409059799", "https://openalex.org/W1972242255", "https://openalex.org/W2890927416", "https://openalex.org/W2128765271", "https://openalex.org/W2966412519", "https://openalex.org/W1993101344", "https://openalex.org/W2775021631", "https://openalex.org/W2028416698", "https://openalex.org/W3126949736", "https://openalex.org/W4285295191")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Shuting Hu, Siyang Cao, Nima Toosizadeh, Jennifer K. Barton, Melvin Hector, Mindy J. Fain</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389500986</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>A Survey on Radar-Based Fall Detection</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5089920351", "https://openalex.org/A5080673592", "https://openalex.org/A5034816040", "https://openalex.org/A5021337936", "https://openalex.org/A5088747364", "https://openalex.org/A5033477263"), au_display_name = c("Shuting Hu", "Siyang Cao", "Nima Toosizadeh", "Jennifer K. Barton", "Melvin Hector", "Mindy J. Fain"), au_orcid = c("https://orcid.org/0000-0003-1813-4309", "https://orcid.org/0000-0001-9593-265X", "https://orcid.org/0000-0002-1235-0791", "https://orcid.org/0000-0003-4897-9361", 
-NA, "https://orcid.org/0000-0002-8267-1873"), author_position = c("first", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fall detection, particularly critical for high-risk demographics like the elderly, is a key public health concern where timely detection can greatly minimize harm. With the advancements in radio frequency technology, radar has emerged as a powerful tool for human detection and tracking. Traditional machine learning algorithms, such as Support Vector Machines (SVM) and k-Nearest Neighbors (kNN), have shown promising outcomes. However, deep learning approaches, notably Convolutional Neural Networks (CNN) and Recurrent Neural Networks (RNN), have outperformed in learning intricate features and managing large, unstructured datasets. This survey offers an in-depth analysis of radar-based fall detection, with emphasis on Micro-Doppler, Range-Doppler, and Range-Doppler-Angles techniques. We discuss the intricacies and challenges in fall detection and emphasize the necessity for a clear definition of falls and appropriate detection criteria, informed by diverse influencing factors. We present an overview of radar signal processing principles and the underlying technology of radar-based fall detection, providing an accessible insight into machine learning and deep learning algorithms. After examining 74 research articles on radar-based fall detection published since 2000, we aim to bridge current research gaps and underscore the potential future research strategies, emphasizing the real-world applications possibility and the unexplored potential of deep learning in improving radar-based fall detection.</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>arXiv (Cornell University)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>arXiv (Cornell University)</t>
+          <t>Cornell University</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4306400194</t>
+          <t>https://arxiv.org/abs/2312.04037</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cornell University</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2312.04037</t>
+          <t>green</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://arxiv.org/pdf/2312.04037</t>
+          <t>en</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.48550/arxiv.2312.04037</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/pdf/2312.04037</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4389500986</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4389500986", doi = "https://doi.org/10.48550/arxiv.2312.04037")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arxiv.2312.04037</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4226493464", "https://openalex.org/W4312417841", "https://openalex.org/W3193565141", "https://openalex.org/W3133861977", "https://openalex.org/W3167935049", "https://openalex.org/W3029198973", "https://openalex.org/W2090763504", "https://openalex.org/W4293226380", "https://openalex.org/W4375867731", "https://openalex.org/W148178222")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Melvin Hector_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Melvin Hector_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -445,77 +450,77 @@
           <t>Melvin Hector</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://openalex.org/W4362603560</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Is Dementia a Disease?</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-04-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Caring for the ages</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.carage.2023.03.016</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.carage.2023.03.016</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +534,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389500986</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>A Survey on Radar-Based Fall Detection</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-12-06</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>arXiv (Cornell University)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Cornell University</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2312.04037</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arxiv.2312.04037</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
